--- a/data_output/prism_passive/all_passive_out_norm_elong_percent_SEE_Fuku_submax_2.xlsx
+++ b/data_output/prism_passive/all_passive_out_norm_elong_percent_SEE_Fuku_submax_2.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11364" windowHeight="6744"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11370" windowHeight="6750"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -356,7 +351,7 @@
       <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -518,154 +513,154 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>84.36302067315799</v>
+        <v>84.363020624540923</v>
       </c>
       <c r="C2">
-        <v>72.978761851956079</v>
+        <v>72.978761901689765</v>
       </c>
       <c r="D2">
-        <v>64.260378419907582</v>
+        <v>64.260378528919915</v>
       </c>
       <c r="E2">
-        <v>45.012182536584028</v>
+        <v>45.012182581387613</v>
       </c>
       <c r="F2">
-        <v>68.721163361808095</v>
+        <v>68.721163408234077</v>
       </c>
       <c r="G2">
-        <v>85.973660812813719</v>
+        <v>85.973660835450488</v>
       </c>
       <c r="H2">
-        <v>67.025679332251315</v>
+        <v>67.025679411870868</v>
       </c>
       <c r="I2">
-        <v>68.608543517074253</v>
+        <v>68.608543520712743</v>
       </c>
       <c r="J2">
-        <v>64.27587055665424</v>
+        <v>64.275870659471281</v>
       </c>
       <c r="K2">
-        <v>86.900330541506008</v>
+        <v>86.900330565512633</v>
       </c>
       <c r="L2">
-        <v>93.160945035281912</v>
+        <v>93.160945075818404</v>
       </c>
       <c r="M2">
-        <v>114.61902196178964</v>
+        <v>114.6190219486805</v>
       </c>
       <c r="N2">
-        <v>67.548617216321034</v>
+        <v>67.548617244242777</v>
       </c>
       <c r="O2">
-        <v>60.807398683559519</v>
+        <v>60.807398824970463</v>
       </c>
       <c r="P2">
-        <v>55.534167718900271</v>
+        <v>55.534167681685133</v>
       </c>
       <c r="Q2">
-        <v>96.166709990689469</v>
+        <v>96.166710034273549</v>
       </c>
       <c r="R2">
-        <v>117.99716072040238</v>
+        <v>117.99716082300068</v>
       </c>
       <c r="S2">
-        <v>41.572411809513909</v>
+        <v>41.572411798868124</v>
       </c>
       <c r="T2">
-        <v>39.114829785401987</v>
+        <v>39.114829741723071</v>
       </c>
       <c r="U2">
-        <v>92.499086925588912</v>
+        <v>92.499087004550518</v>
       </c>
       <c r="V2">
-        <v>75.847452521965224</v>
+        <v>75.84745258657604</v>
       </c>
       <c r="W2">
-        <v>119.11659956399158</v>
+        <v>119.11659972800095</v>
       </c>
       <c r="X2">
-        <v>88.197322825823136</v>
+        <v>88.197322894447808</v>
       </c>
       <c r="Y2">
-        <v>26.414635705101762</v>
+        <v>26.414635809870283</v>
       </c>
       <c r="Z2">
-        <v>61.710353812205241</v>
+        <v>61.710353873120049</v>
       </c>
       <c r="AA2">
-        <v>47.363883940639738</v>
+        <v>47.36388428327524</v>
       </c>
       <c r="AB2">
-        <v>51.901666912071555</v>
+        <v>51.901667040156028</v>
       </c>
       <c r="AC2">
-        <v>88.816555040023076</v>
+        <v>88.816555157474099</v>
       </c>
       <c r="AD2">
-        <v>27.066811008328624</v>
+        <v>27.066811162086797</v>
       </c>
       <c r="AE2">
-        <v>71.563487790490171</v>
+        <v>71.563487806586295</v>
       </c>
       <c r="AF2">
-        <v>59.089480651643825</v>
+        <v>59.089480744731617</v>
       </c>
       <c r="AG2">
-        <v>55.452342754176541</v>
+        <v>55.452342973406111</v>
       </c>
       <c r="AH2">
-        <v>50.209923770110279</v>
+        <v>50.20992386871017</v>
       </c>
       <c r="AI2">
-        <v>56.378399558463578</v>
+        <v>56.378399694110627</v>
       </c>
       <c r="AJ2">
-        <v>68.996047200246352</v>
+        <v>68.996047316605896</v>
       </c>
       <c r="AK2">
-        <v>65.502825476776877</v>
+        <v>65.502825531266623</v>
       </c>
       <c r="AL2">
-        <v>97.478717606368036</v>
+        <v>97.47871770431442</v>
       </c>
       <c r="AM2">
-        <v>51.749847147054915</v>
+        <v>51.749847241264177</v>
       </c>
       <c r="AN2">
-        <v>57.856664999697891</v>
+        <v>57.856665081595104</v>
       </c>
       <c r="AO2">
-        <v>33.210686703260997</v>
+        <v>33.210686875541278</v>
       </c>
       <c r="AP2">
-        <v>49.257252635867168</v>
+        <v>49.257252735837149</v>
       </c>
       <c r="AQ2">
-        <v>92.11734557386491</v>
+        <v>92.117345762519747</v>
       </c>
       <c r="AR2">
-        <v>35.79388841200219</v>
+        <v>35.79388842977643</v>
       </c>
       <c r="AS2">
-        <v>41.046627470484196</v>
+        <v>41.046627688101012</v>
       </c>
       <c r="AT2">
-        <v>63.384925338579002</v>
+        <v>63.384925436359566</v>
       </c>
       <c r="AU2">
-        <v>51.298752908974699</v>
+        <v>51.298752927628712</v>
       </c>
       <c r="AV2">
-        <v>58.719138776866806</v>
+        <v>58.71913913783937</v>
       </c>
       <c r="AW2">
-        <v>75.703949180690984</v>
+        <v>75.703949241141387</v>
       </c>
       <c r="AX2">
-        <v>43.716857632058982</v>
+        <v>43.716857746286621</v>
       </c>
       <c r="AY2">
-        <v>25.258263279008649</v>
+        <v>25.258263380286355</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -673,154 +668,154 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>77.56458329728008</v>
+        <v>77.564583353309217</v>
       </c>
       <c r="C3">
-        <v>74.719062552920121</v>
+        <v>74.719062592447685</v>
       </c>
       <c r="D3">
-        <v>45.387336072134516</v>
+        <v>45.387336161821736</v>
       </c>
       <c r="E3">
-        <v>48.069188454216103</v>
+        <v>48.069188453324493</v>
       </c>
       <c r="F3">
-        <v>76.984785763108462</v>
+        <v>76.984785867665863</v>
       </c>
       <c r="G3">
-        <v>58.955778306413421</v>
+        <v>58.955778361210676</v>
       </c>
       <c r="H3">
-        <v>95.278720779107957</v>
+        <v>95.278720822870113</v>
       </c>
       <c r="I3">
-        <v>85.103021073936944</v>
+        <v>85.103021110390415</v>
       </c>
       <c r="J3">
-        <v>53.172068984704623</v>
+        <v>53.172069100611438</v>
       </c>
       <c r="K3">
-        <v>-23.435393789293091</v>
+        <v>-23.435393679616929</v>
       </c>
       <c r="L3">
-        <v>55.458345438134046</v>
+        <v>55.458345519510665</v>
       </c>
       <c r="M3">
-        <v>90.736362741621818</v>
+        <v>90.736373018151554</v>
       </c>
       <c r="N3">
-        <v>69.070375113989925</v>
+        <v>69.070375169844979</v>
       </c>
       <c r="O3">
-        <v>148.7239244897942</v>
+        <v>148.72392456588676</v>
       </c>
       <c r="P3">
-        <v>52.037678827534229</v>
+        <v>52.037678919104323</v>
       </c>
       <c r="Q3">
-        <v>73.8906703602363</v>
+        <v>73.890670436715638</v>
       </c>
       <c r="R3">
-        <v>94.419264558550907</v>
+        <v>94.419264679855885</v>
       </c>
       <c r="S3">
-        <v>43.841597877030473</v>
+        <v>43.841597886706815</v>
       </c>
       <c r="T3">
-        <v>48.748456313384317</v>
+        <v>48.748456371235825</v>
       </c>
       <c r="U3">
-        <v>60.652780263390426</v>
+        <v>60.652780300504325</v>
       </c>
       <c r="V3">
-        <v>57.501506735184705</v>
+        <v>57.501506783397105</v>
       </c>
       <c r="W3">
-        <v>100.32284285231681</v>
+        <v>100.32284301578156</v>
       </c>
       <c r="X3">
-        <v>104.43289042171027</v>
+        <v>104.43289048557314</v>
       </c>
       <c r="Y3">
-        <v>14.668996610053743</v>
+        <v>14.668996749366894</v>
       </c>
       <c r="Z3">
-        <v>42.867328750578729</v>
+        <v>42.867328821999109</v>
       </c>
       <c r="AA3">
-        <v>45.881843149072189</v>
+        <v>45.881843096752675</v>
       </c>
       <c r="AB3">
-        <v>49.354566708113779</v>
+        <v>49.354566801574414</v>
       </c>
       <c r="AC3">
-        <v>51.250028298608832</v>
+        <v>51.250028305862152</v>
       </c>
       <c r="AD3">
-        <v>40.430575489613609</v>
+        <v>40.430575624281786</v>
       </c>
       <c r="AE3">
-        <v>50.169507703047231</v>
+        <v>50.169507755088674</v>
       </c>
       <c r="AF3">
-        <v>62.392208875920993</v>
+        <v>62.39220895539502</v>
       </c>
       <c r="AG3">
-        <v>71.039687650460678</v>
+        <v>71.039687660980775</v>
       </c>
       <c r="AH3">
-        <v>76.041281533129521</v>
+        <v>76.041281699301578</v>
       </c>
       <c r="AI3">
-        <v>7.2506802397472754</v>
+        <v>7.2506803768201173</v>
       </c>
       <c r="AJ3">
-        <v>45.113568063046181</v>
+        <v>45.113568131222962</v>
       </c>
       <c r="AK3">
-        <v>60.468299458984745</v>
+        <v>60.468299498423697</v>
       </c>
       <c r="AL3">
-        <v>63.596726178909179</v>
+        <v>63.596726249003531</v>
       </c>
       <c r="AM3">
-        <v>52.365121623975966</v>
+        <v>52.365121882339729</v>
       </c>
       <c r="AN3">
-        <v>114.69504841842635</v>
+        <v>114.6950485478059</v>
       </c>
       <c r="AO3">
-        <v>39.772263198179594</v>
+        <v>39.772263274398647</v>
       </c>
       <c r="AP3">
-        <v>77.653012825833144</v>
+        <v>77.653012977108858</v>
       </c>
       <c r="AQ3">
-        <v>63.599944286644693</v>
+        <v>63.59994439559641</v>
       </c>
       <c r="AR3">
-        <v>30.298543295980128</v>
+        <v>30.298543314306315</v>
       </c>
       <c r="AS3">
-        <v>59.121010258882059</v>
+        <v>59.121010421183186</v>
       </c>
       <c r="AT3">
-        <v>40.724051263820954</v>
+        <v>40.724051487563699</v>
       </c>
       <c r="AU3">
-        <v>71.413071614824673</v>
+        <v>71.41307172870107</v>
       </c>
       <c r="AV3">
-        <v>70.488549898436332</v>
+        <v>70.488550199745504</v>
       </c>
       <c r="AW3">
-        <v>72.526205028415333</v>
+        <v>72.526205210857867</v>
       </c>
       <c r="AX3">
-        <v>71.482506414198724</v>
+        <v>71.48250655955205</v>
       </c>
       <c r="AY3">
-        <v>15.345775185476571</v>
+        <v>15.345775220830593</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_out_norm_elong_percent_SEE_Fuku_submax_2.xlsx
+++ b/data_output/prism_passive/all_passive_out_norm_elong_percent_SEE_Fuku_submax_2.xlsx
@@ -19,15 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Subj</t>
-  </si>
-  <si>
-    <t>CON</t>
-  </si>
-  <si>
-    <t>STR</t>
   </si>
 </sst>
 </file>
@@ -357,57 +351,6 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <v>9</v>
-      </c>
-      <c r="K1">
-        <v>10</v>
-      </c>
-      <c r="L1">
-        <v>11</v>
-      </c>
-      <c r="M1">
-        <v>13</v>
-      </c>
-      <c r="N1">
-        <v>15</v>
-      </c>
-      <c r="O1">
-        <v>16</v>
-      </c>
-      <c r="P1">
-        <v>18</v>
-      </c>
-      <c r="Q1">
-        <v>19</v>
-      </c>
-      <c r="R1">
-        <v>20</v>
-      </c>
       <c r="S1">
         <v>21</v>
       </c>
@@ -432,57 +375,6 @@
       <c r="Z1">
         <v>31</v>
       </c>
-      <c r="AA1">
-        <v>1</v>
-      </c>
-      <c r="AB1">
-        <v>2</v>
-      </c>
-      <c r="AC1">
-        <v>3</v>
-      </c>
-      <c r="AD1">
-        <v>4</v>
-      </c>
-      <c r="AE1">
-        <v>5</v>
-      </c>
-      <c r="AF1">
-        <v>6</v>
-      </c>
-      <c r="AG1">
-        <v>7</v>
-      </c>
-      <c r="AH1">
-        <v>8</v>
-      </c>
-      <c r="AI1">
-        <v>9</v>
-      </c>
-      <c r="AJ1">
-        <v>10</v>
-      </c>
-      <c r="AK1">
-        <v>11</v>
-      </c>
-      <c r="AL1">
-        <v>13</v>
-      </c>
-      <c r="AM1">
-        <v>15</v>
-      </c>
-      <c r="AN1">
-        <v>16</v>
-      </c>
-      <c r="AO1">
-        <v>18</v>
-      </c>
-      <c r="AP1">
-        <v>19</v>
-      </c>
-      <c r="AQ1">
-        <v>20</v>
-      </c>
       <c r="AR1">
         <v>21</v>
       </c>
@@ -509,62 +401,59 @@
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
       <c r="B2">
-        <v>84.363020624540923</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>72.978761901689765</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>64.260378528919915</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>45.012182581387613</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>68.721163408234077</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>85.973660835450488</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>67.025679411870868</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>68.608543520712743</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>64.275870659471281</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>86.900330565512633</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>93.160945075818404</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>114.6190219486805</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>67.548617244242777</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>60.807398824970463</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>55.534167681685133</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>96.166710034273549</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>117.99716082300068</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>41.572411798868124</v>
+        <v>63.737245851787407</v>
       </c>
       <c r="T2">
         <v>39.114829741723071</v>
@@ -588,55 +477,55 @@
         <v>61.710353873120049</v>
       </c>
       <c r="AA2">
-        <v>47.36388428327524</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>51.901667040156028</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>88.816555157474099</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>27.066811162086797</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>71.563487806586295</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>59.089480744731617</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>55.452342973406111</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>50.20992386871017</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>56.378399694110627</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>68.996047316605896</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>65.502825531266623</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>97.47871770431442</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>51.749847241264177</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>57.856665081595104</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>33.210686875541278</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>49.257252735837149</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>92.117345762519747</v>
+        <v>0</v>
       </c>
       <c r="AR2">
         <v>35.79388842977643</v>
@@ -664,59 +553,56 @@
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
       <c r="B3">
-        <v>77.564583353309217</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>74.719062592447685</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>45.387336161821736</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>48.069188453324493</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>76.984785867665863</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>58.955778361210676</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>95.278720822870113</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>85.103021110390415</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>53.172069100611438</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>-23.435393679616929</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>55.458345519510665</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>90.736373018151554</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>69.070375169844979</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>148.72392456588676</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>52.037678919104323</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>73.890670436715638</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>94.419264679855885</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>43.841597886706815</v>
@@ -743,55 +629,55 @@
         <v>42.867328821999109</v>
       </c>
       <c r="AA3">
-        <v>45.881843096752675</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>49.354566801574414</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>51.250028305862152</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>40.430575624281786</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>50.169507755088674</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>62.39220895539502</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>71.039687660980775</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>76.041281699301578</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>7.2506803768201173</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>45.113568131222962</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>60.468299498423697</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>63.596726249003531</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>52.365121882339729</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>114.6950485478059</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>39.772263274398647</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>77.653012977108858</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>63.59994439559641</v>
+        <v>0</v>
       </c>
       <c r="AR3">
         <v>30.298543314306315</v>

--- a/data_output/prism_passive/all_passive_out_norm_elong_percent_SEE_Fuku_submax_2.xlsx
+++ b/data_output/prism_passive/all_passive_out_norm_elong_percent_SEE_Fuku_submax_2.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>90.036922097167434</v>
+        <v>60.750259275712338</v>
       </c>
       <c r="C2">
-        <v>81.881530699064498</v>
+        <v>60.124489566207195</v>
       </c>
       <c r="D2">
-        <v>60.156266320256634</v>
+        <v>53.771243284480605</v>
       </c>
       <c r="E2">
-        <v>77.631045447331857</v>
+        <v>67.871134820777954</v>
       </c>
       <c r="F2">
         <v>70.323578330810406</v>
@@ -673,16 +668,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>73.553673132855053</v>
+        <v>31.805776781676283</v>
       </c>
       <c r="C3">
-        <v>68.81377273051001</v>
+        <v>56.603026870414674</v>
       </c>
       <c r="D3">
-        <v>52.501258859946233</v>
+        <v>56.955511943931079</v>
       </c>
       <c r="E3">
-        <v>23.558152862642537</v>
+        <v>83.044127267266163</v>
       </c>
       <c r="F3">
         <v>76.928576330999718</v>

--- a/data_output/prism_passive/all_passive_out_norm_elong_percent_SEE_Fuku_submax_2.xlsx
+++ b/data_output/prism_passive/all_passive_out_norm_elong_percent_SEE_Fuku_submax_2.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9036"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>90.036922097167434</v>
+        <v>87.672128106644124</v>
       </c>
       <c r="C2">
-        <v>81.881530699064498</v>
+        <v>60.750259275712338</v>
       </c>
       <c r="D2">
-        <v>60.156266320256634</v>
+        <v>48.443473941970716</v>
       </c>
       <c r="E2">
-        <v>77.631045447331857</v>
+        <v>53.771243284480605</v>
       </c>
       <c r="F2">
         <v>70.323578330810406</v>
@@ -670,16 +665,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>73.553673132855053</v>
+        <v>71.788163308529889</v>
       </c>
       <c r="C3">
-        <v>68.81377273051001</v>
+        <v>31.805776781676283</v>
       </c>
       <c r="D3">
-        <v>52.501258859946233</v>
+        <v>31.717655404642731</v>
       </c>
       <c r="E3">
-        <v>15.352704379947502</v>
+        <v>56.955511943931079</v>
       </c>
       <c r="F3">
         <v>76.928576330999718</v>

--- a/data_output/prism_passive/all_passive_out_norm_elong_percent_SEE_Fuku_submax_2.xlsx
+++ b/data_output/prism_passive/all_passive_out_norm_elong_percent_SEE_Fuku_submax_2.xlsx
@@ -348,7 +348,7 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E3"/>
+      <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -358,16 +358,16 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C1">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -513,151 +513,151 @@
         <v>1</v>
       </c>
       <c r="B2">
+        <v>90.036921991503704</v>
+      </c>
+      <c r="C2">
+        <v>81.881530842440043</v>
+      </c>
+      <c r="D2">
+        <v>60.156266601568205</v>
+      </c>
+      <c r="E2">
+        <v>77.631045547677559</v>
+      </c>
+      <c r="F2">
+        <v>70.323578511406481</v>
+      </c>
+      <c r="G2">
+        <v>66.859214859405498</v>
+      </c>
+      <c r="H2">
+        <v>84.837610158275751</v>
+      </c>
+      <c r="I2">
+        <v>87.008112329883218</v>
+      </c>
+      <c r="J2">
+        <v>69.492087537975763</v>
+      </c>
+      <c r="K2">
+        <v>87.380119763068819</v>
+      </c>
+      <c r="L2">
+        <v>77.695327624526996</v>
+      </c>
+      <c r="M2">
+        <v>67.584132042773618</v>
+      </c>
+      <c r="N2">
         <v>87.672128106644124</v>
       </c>
-      <c r="C2">
+      <c r="O2">
         <v>60.750259275712338</v>
       </c>
-      <c r="D2">
+      <c r="P2">
+        <v>91.688548491432982</v>
+      </c>
+      <c r="Q2">
+        <v>82.497642402626383</v>
+      </c>
+      <c r="R2">
+        <v>60.124489566207195</v>
+      </c>
+      <c r="T2">
+        <v>76.321207152534427</v>
+      </c>
+      <c r="U2">
+        <v>57.929495255931194</v>
+      </c>
+      <c r="V2">
+        <v>66.635237495723715</v>
+      </c>
+      <c r="W2">
+        <v>67.017036473667915</v>
+      </c>
+      <c r="X2">
+        <v>79.527053946725644</v>
+      </c>
+      <c r="Y2">
+        <v>53.786911253621959</v>
+      </c>
+      <c r="Z2">
+        <v>28.929515216430328</v>
+      </c>
+      <c r="AA2">
+        <v>46.60758858889502</v>
+      </c>
+      <c r="AB2">
+        <v>26.051945817176708</v>
+      </c>
+      <c r="AC2">
+        <v>70.654432691121173</v>
+      </c>
+      <c r="AD2">
+        <v>36.775587545378166</v>
+      </c>
+      <c r="AE2">
+        <v>76.59339846182931</v>
+      </c>
+      <c r="AF2">
+        <v>58.246817711497393</v>
+      </c>
+      <c r="AG2">
+        <v>66.151827102844393</v>
+      </c>
+      <c r="AH2">
+        <v>52.953528621366686</v>
+      </c>
+      <c r="AI2">
+        <v>31.31648335428816</v>
+      </c>
+      <c r="AJ2">
+        <v>74.604422415574007</v>
+      </c>
+      <c r="AK2">
+        <v>68.611479009842995</v>
+      </c>
+      <c r="AL2">
+        <v>77.048388711427322</v>
+      </c>
+      <c r="AM2">
         <v>48.443473941970716</v>
       </c>
-      <c r="E2">
+      <c r="AN2">
         <v>53.771243284480605</v>
       </c>
-      <c r="F2">
-        <v>70.323578330810406</v>
-      </c>
-      <c r="G2">
-        <v>66.859214850985012</v>
-      </c>
-      <c r="H2">
-        <v>84.837609976179024</v>
-      </c>
-      <c r="I2">
-        <v>87.008112436833358</v>
-      </c>
-      <c r="J2">
-        <v>69.492087194305014</v>
-      </c>
-      <c r="K2">
-        <v>87.380119691403621</v>
-      </c>
-      <c r="L2">
-        <v>77.695327417350796</v>
-      </c>
-      <c r="M2">
-        <v>67.584132214180798</v>
-      </c>
-      <c r="N2">
-        <v>87.672127910051941</v>
-      </c>
-      <c r="O2">
-        <v>60.750258910322671</v>
-      </c>
-      <c r="P2">
-        <v>91.688548548277964</v>
-      </c>
-      <c r="Q2">
-        <v>82.497642173570824</v>
-      </c>
-      <c r="R2">
-        <v>60.124489091571299</v>
-      </c>
-      <c r="T2">
-        <v>76.321207289448267</v>
-      </c>
-      <c r="U2">
-        <v>57.929494782134604</v>
-      </c>
-      <c r="V2">
-        <v>66.63523718381532</v>
-      </c>
-      <c r="W2">
-        <v>67.017036169723085</v>
-      </c>
-      <c r="X2">
-        <v>79.527053704688853</v>
-      </c>
-      <c r="Y2">
-        <v>53.786910777428531</v>
-      </c>
-      <c r="Z2">
-        <v>28.929514613281821</v>
-      </c>
-      <c r="AA2">
-        <v>46.607587858616242</v>
-      </c>
-      <c r="AB2">
-        <v>26.051945484081333</v>
-      </c>
-      <c r="AC2">
-        <v>70.654432378399051</v>
-      </c>
-      <c r="AD2">
-        <v>36.775587206378866</v>
-      </c>
-      <c r="AE2">
-        <v>76.593398421033527</v>
-      </c>
-      <c r="AF2">
-        <v>58.246817307062351</v>
-      </c>
-      <c r="AG2">
-        <v>66.151826612659775</v>
-      </c>
-      <c r="AH2">
-        <v>52.953528259718986</v>
-      </c>
-      <c r="AI2">
-        <v>31.316482932048189</v>
-      </c>
-      <c r="AJ2">
-        <v>74.604422147702849</v>
-      </c>
-      <c r="AK2">
-        <v>68.611478875363446</v>
-      </c>
-      <c r="AL2">
-        <v>77.048388353255447</v>
-      </c>
-      <c r="AM2">
-        <v>48.443473672352049</v>
-      </c>
-      <c r="AN2">
-        <v>53.771242957420405</v>
-      </c>
       <c r="AO2">
-        <v>50.343077237366188</v>
+        <v>50.343077913236499</v>
       </c>
       <c r="AP2">
-        <v>60.772972035948236</v>
+        <v>60.77297240143691</v>
       </c>
       <c r="AQ2">
-        <v>67.87113427105254</v>
+        <v>67.871134820777954</v>
       </c>
       <c r="AR2">
-        <v>70.348151848078288</v>
+        <v>70.348151940955717</v>
       </c>
       <c r="AS2">
-        <v>51.389975392949182</v>
+        <v>51.389975915790643</v>
       </c>
       <c r="AT2">
-        <v>31.893267888293416</v>
+        <v>31.893268422732408</v>
       </c>
       <c r="AU2">
-        <v>81.306700936377496</v>
+        <v>81.306700842252894</v>
       </c>
       <c r="AV2">
-        <v>31.455013547884302</v>
+        <v>31.455014146895216</v>
       </c>
       <c r="AW2">
-        <v>48.373079947562651</v>
+        <v>48.373080153760469</v>
       </c>
       <c r="AX2">
-        <v>45.888698983142831</v>
+        <v>45.888699309687489</v>
       </c>
       <c r="AY2">
-        <v>43.412148361152944</v>
+        <v>43.412148766976564</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -665,154 +665,154 @@
         <v>2</v>
       </c>
       <c r="B3">
+        <v>73.553673265352202</v>
+      </c>
+      <c r="C3">
+        <v>68.813772822197393</v>
+      </c>
+      <c r="D3">
+        <v>52.50125935979446</v>
+      </c>
+      <c r="E3">
+        <v>15.35270488242568</v>
+      </c>
+      <c r="F3">
+        <v>76.928576619455029</v>
+      </c>
+      <c r="G3">
+        <v>68.888194311548105</v>
+      </c>
+      <c r="H3">
+        <v>74.642233913568433</v>
+      </c>
+      <c r="I3">
+        <v>88.44009444360141</v>
+      </c>
+      <c r="J3">
+        <v>58.765112058356635</v>
+      </c>
+      <c r="K3">
+        <v>68.509438728744726</v>
+      </c>
+      <c r="L3">
+        <v>71.977759258315885</v>
+      </c>
+      <c r="M3">
+        <v>74.31869537822422</v>
+      </c>
+      <c r="N3">
         <v>71.788163308529889</v>
       </c>
-      <c r="C3">
+      <c r="O3">
         <v>31.805776781676283</v>
       </c>
-      <c r="D3">
+      <c r="P3">
+        <v>40.511313570841274</v>
+      </c>
+      <c r="Q3">
+        <v>88.148060418472951</v>
+      </c>
+      <c r="R3">
+        <v>56.603026870414674</v>
+      </c>
+      <c r="S3">
+        <v>71.845456892562822</v>
+      </c>
+      <c r="T3">
+        <v>67.243297771986548</v>
+      </c>
+      <c r="U3">
+        <v>60.370053648978086</v>
+      </c>
+      <c r="V3">
+        <v>77.2493006908919</v>
+      </c>
+      <c r="W3">
+        <v>74.942495946715297</v>
+      </c>
+      <c r="X3">
+        <v>68.986006460520372</v>
+      </c>
+      <c r="Y3">
+        <v>30.642328648868727</v>
+      </c>
+      <c r="Z3">
+        <v>28.450265812695136</v>
+      </c>
+      <c r="AA3">
+        <v>48.491516876452209</v>
+      </c>
+      <c r="AB3">
+        <v>51.818958717598896</v>
+      </c>
+      <c r="AC3">
+        <v>69.484919699934579</v>
+      </c>
+      <c r="AD3">
+        <v>54.90617738197848</v>
+      </c>
+      <c r="AE3">
+        <v>66.637585642638356</v>
+      </c>
+      <c r="AF3">
+        <v>50.531891861890124</v>
+      </c>
+      <c r="AG3">
+        <v>69.212191226091562</v>
+      </c>
+      <c r="AH3">
+        <v>67.753038029870638</v>
+      </c>
+      <c r="AI3">
+        <v>52.791736151381365</v>
+      </c>
+      <c r="AJ3">
+        <v>49.92470115022207</v>
+      </c>
+      <c r="AK3">
+        <v>69.807224086633695</v>
+      </c>
+      <c r="AL3">
+        <v>56.281908240902837</v>
+      </c>
+      <c r="AM3">
         <v>31.717655404642731</v>
       </c>
-      <c r="E3">
+      <c r="AN3">
         <v>56.955511943931079</v>
       </c>
-      <c r="F3">
-        <v>76.928576330999718</v>
-      </c>
-      <c r="G3">
-        <v>68.88819413026448</v>
-      </c>
-      <c r="H3">
-        <v>74.642233757670667</v>
-      </c>
-      <c r="I3">
-        <v>88.440094222336313</v>
-      </c>
-      <c r="J3">
-        <v>58.765111679569124</v>
-      </c>
-      <c r="K3">
-        <v>68.509438288398712</v>
-      </c>
-      <c r="L3">
-        <v>71.977758940096791</v>
-      </c>
-      <c r="M3">
-        <v>74.315807051806146</v>
-      </c>
-      <c r="N3">
-        <v>71.788163084306049</v>
-      </c>
-      <c r="O3">
-        <v>31.805776086663752</v>
-      </c>
-      <c r="P3">
-        <v>40.511313188964856</v>
-      </c>
-      <c r="Q3">
-        <v>88.14806015360557</v>
-      </c>
-      <c r="R3">
-        <v>56.603026497470509</v>
-      </c>
-      <c r="S3">
-        <v>71.845456832394774</v>
-      </c>
-      <c r="T3">
-        <v>67.243297440059436</v>
-      </c>
-      <c r="U3">
-        <v>60.370053351924689</v>
-      </c>
-      <c r="V3">
-        <v>77.249300527478283</v>
-      </c>
-      <c r="W3">
-        <v>74.942495429756733</v>
-      </c>
-      <c r="X3">
-        <v>68.986006111974547</v>
-      </c>
-      <c r="Y3">
-        <v>30.642327873483143</v>
-      </c>
-      <c r="Z3">
-        <v>28.450265283014183</v>
-      </c>
-      <c r="AA3">
-        <v>48.491516984084711</v>
-      </c>
-      <c r="AB3">
-        <v>51.818958516226445</v>
-      </c>
-      <c r="AC3">
-        <v>69.484919674852918</v>
-      </c>
-      <c r="AD3">
-        <v>54.906177029333072</v>
-      </c>
-      <c r="AE3">
-        <v>66.637585525396474</v>
-      </c>
-      <c r="AF3">
-        <v>50.531891609587397</v>
-      </c>
-      <c r="AG3">
-        <v>69.212191203443211</v>
-      </c>
-      <c r="AH3">
-        <v>67.753037614663015</v>
-      </c>
-      <c r="AI3">
-        <v>52.791735764664374</v>
-      </c>
-      <c r="AJ3">
-        <v>49.924700979964271</v>
-      </c>
-      <c r="AK3">
-        <v>69.807223993217733</v>
-      </c>
-      <c r="AL3">
-        <v>56.281908014493119</v>
-      </c>
-      <c r="AM3">
-        <v>31.717654781458787</v>
-      </c>
-      <c r="AN3">
-        <v>56.955511565229955</v>
-      </c>
       <c r="AO3">
-        <v>22.117043283521301</v>
+        <v>22.117043519878298</v>
       </c>
       <c r="AP3">
-        <v>53.57110379613902</v>
+        <v>53.571104328243756</v>
       </c>
       <c r="AQ3">
-        <v>83.044127176910379</v>
+        <v>83.044127267266163</v>
       </c>
       <c r="AR3">
-        <v>67.828123358160269</v>
+        <v>67.828123492633779</v>
       </c>
       <c r="AS3">
-        <v>63.098107998382588</v>
+        <v>63.098108441808989</v>
       </c>
       <c r="AT3">
-        <v>45.323621061800793</v>
+        <v>45.323621904476461</v>
       </c>
       <c r="AU3">
-        <v>77.224435594357786</v>
+        <v>77.224435683933194</v>
       </c>
       <c r="AV3">
-        <v>55.810544737426603</v>
+        <v>55.810545358553057</v>
       </c>
       <c r="AW3">
-        <v>52.83125216735597</v>
+        <v>52.83125262367485</v>
       </c>
       <c r="AX3">
-        <v>66.183854753467855</v>
+        <v>66.183855220588413</v>
       </c>
       <c r="AY3">
-        <v>33.86973473255113</v>
+        <v>33.86973489269792</v>
       </c>
     </row>
   </sheetData>
